--- a/docs/Without J-Link/ZSWatch-Dock.xlsx
+++ b/docs/Without J-Link/ZSWatch-Dock.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF2962-B96A-429C-AABB-FD87CE1F269F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114B3BEB-9182-473D-9668-B6866CD4FAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="2010" windowWidth="22140" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -514,15 +514,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t>TAIYO YUDEN</t>
-  </si>
-  <si>
-    <t>LSCNB1608HKT1R0MD</t>
-  </si>
-  <si>
-    <t>963-LSCNB1608HKT1R0MD</t>
-  </si>
-  <si>
     <t>R1, R2, R3</t>
   </si>
   <si>
@@ -671,6 +662,15 @@
   </si>
   <si>
     <t>5+D13:H1381-06036C225MAT2A</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>MLZ1608N100LT000</t>
+  </si>
+  <si>
+    <t>810-MLZ1608N100LT000</t>
   </si>
 </sst>
 </file>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -1314,7 +1314,7 @@
       <c r="B3" s="31"/>
       <c r="C3" s="23">
         <f ca="1">TODAY()</f>
-        <v>45198</v>
+        <v>45238</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -1402,7 +1402,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>26</v>
@@ -1420,10 +1420,10 @@
         <v>22</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1437,7 +1437,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>26</v>
@@ -1455,10 +1455,10 @@
         <v>22</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1472,7 +1472,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>37</v>
@@ -1490,10 +1490,10 @@
         <v>22</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1507,7 +1507,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>37</v>
@@ -1525,10 +1525,10 @@
         <v>22</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1536,13 +1536,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>37</v>
@@ -1560,10 +1560,10 @@
         <v>2</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1577,7 +1577,7 @@
         <v>48</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>37</v>
@@ -1589,16 +1589,16 @@
         <v>25</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1612,7 +1612,7 @@
         <v>51</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>52</v>
@@ -1630,10 +1630,10 @@
         <v>22</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1647,7 +1647,7 @@
         <v>56</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>52</v>
@@ -1665,10 +1665,10 @@
         <v>22</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1682,7 +1682,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>61</v>
@@ -1700,10 +1700,10 @@
         <v>22</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1717,7 +1717,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>65</v>
@@ -1735,10 +1735,10 @@
         <v>22</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1752,7 +1752,7 @@
         <v>69</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>70</v>
@@ -1770,10 +1770,10 @@
         <v>22</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1787,28 +1787,28 @@
         <v>24</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1816,34 +1816,34 @@
         <v>14</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>124</v>
-      </c>
       <c r="F20" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>34</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1851,34 +1851,34 @@
         <v>15</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1886,34 +1886,34 @@
         <v>16</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>29</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1921,34 +1921,34 @@
         <v>17</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1956,34 +1956,34 @@
         <v>18</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>85</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1991,34 +1991,34 @@
         <v>19</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I25" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2026,34 +2026,34 @@
         <v>20</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="14" customFormat="1" ht="15">

--- a/docs/Without J-Link/ZSWatch-Dock.xlsx
+++ b/docs/Without J-Link/ZSWatch-Dock.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF2962-B96A-429C-AABB-FD87CE1F269F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1974FCCE-06D8-4AE5-B91A-A465ED61359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="2010" windowWidth="22140" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -514,15 +514,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t>TAIYO YUDEN</t>
-  </si>
-  <si>
-    <t>LSCNB1608HKT1R0MD</t>
-  </si>
-  <si>
-    <t>963-LSCNB1608HKT1R0MD</t>
-  </si>
-  <si>
     <t>R1, R2, R3</t>
   </si>
   <si>
@@ -671,6 +662,15 @@
   </si>
   <si>
     <t>5+D13:H1381-06036C225MAT2A</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>MLZ1608N100LT000</t>
+  </si>
+  <si>
+    <t>810-MLZ1608N100LT000</t>
   </si>
 </sst>
 </file>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -1314,7 +1314,7 @@
       <c r="B3" s="31"/>
       <c r="C3" s="23">
         <f ca="1">TODAY()</f>
-        <v>45198</v>
+        <v>45219</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -1402,7 +1402,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>26</v>
@@ -1420,10 +1420,10 @@
         <v>22</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1437,7 +1437,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>26</v>
@@ -1455,10 +1455,10 @@
         <v>22</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1472,7 +1472,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>37</v>
@@ -1490,10 +1490,10 @@
         <v>22</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1507,7 +1507,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>37</v>
@@ -1525,10 +1525,10 @@
         <v>22</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1536,13 +1536,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>37</v>
@@ -1560,10 +1560,10 @@
         <v>2</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1577,7 +1577,7 @@
         <v>48</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>37</v>
@@ -1589,16 +1589,16 @@
         <v>25</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1612,7 +1612,7 @@
         <v>51</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>52</v>
@@ -1630,10 +1630,10 @@
         <v>22</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1647,7 +1647,7 @@
         <v>56</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>52</v>
@@ -1665,10 +1665,10 @@
         <v>22</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1682,7 +1682,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>61</v>
@@ -1700,10 +1700,10 @@
         <v>22</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1717,7 +1717,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>65</v>
@@ -1735,10 +1735,10 @@
         <v>22</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1752,7 +1752,7 @@
         <v>69</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>70</v>
@@ -1770,10 +1770,10 @@
         <v>22</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1787,28 +1787,28 @@
         <v>24</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1816,34 +1816,34 @@
         <v>14</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>124</v>
-      </c>
       <c r="F20" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>34</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1851,34 +1851,34 @@
         <v>15</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1886,34 +1886,34 @@
         <v>16</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>29</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1921,34 +1921,34 @@
         <v>17</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1956,34 +1956,34 @@
         <v>18</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>85</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1991,34 +1991,34 @@
         <v>19</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I25" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2026,34 +2026,34 @@
         <v>20</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="14" customFormat="1" ht="15">
